--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed2/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.514</v>
+        <v>-12.545</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.828</v>
+        <v>5.688000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.158</v>
+        <v>16.261</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.314</v>
+        <v>17.724</v>
       </c>
     </row>
     <row r="13">
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.319999999999999</v>
+        <v>5.735</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.77</v>
+        <v>5.449</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.034</v>
+        <v>-11.87</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.196</v>
+        <v>9.49</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.066000000000001</v>
+        <v>7.725</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -842,13 +842,13 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.202</v>
+        <v>-12.74</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.59800000000001</v>
+        <v>16.987</v>
       </c>
     </row>
     <row r="25">
@@ -856,16 +856,16 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.148000000000001</v>
+        <v>5.403</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.812</v>
+        <v>-11.52</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.08</v>
+        <v>17.082</v>
       </c>
     </row>
     <row r="26">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.32</v>
+        <v>6.461</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.416</v>
+        <v>-13.645</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.528</v>
+        <v>5.383999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.864</v>
+        <v>-13.165</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.272</v>
+        <v>-13.223</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.614</v>
+        <v>-12.728</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.648</v>
+        <v>9.269</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1137,7 +1137,7 @@
         <v>-8.720000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>16.84</v>
+        <v>16.473</v>
       </c>
     </row>
     <row r="42">
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.266</v>
+        <v>-12.67</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.434</v>
+        <v>-11.52</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.644</v>
+        <v>16.305</v>
       </c>
     </row>
     <row r="51">
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.674</v>
+        <v>-11.02</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.644</v>
+        <v>-11.684</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.2</v>
+        <v>6.687</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>17.048</v>
+        <v>17.041</v>
       </c>
     </row>
     <row r="54">
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.48</v>
+        <v>-13.618</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,13 +1386,13 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.648</v>
+        <v>-13.445</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.342</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="57">
@@ -1400,16 +1400,16 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.712</v>
+        <v>4.864000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.85</v>
+        <v>-13.852</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.448</v>
+        <v>16.423</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.498</v>
+        <v>16.545</v>
       </c>
     </row>
     <row r="59">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.996</v>
+        <v>4.714</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1454,7 +1454,7 @@
         <v>3.07</v>
       </c>
       <c r="C60" t="n">
-        <v>-13.546</v>
+        <v>-13.048</v>
       </c>
       <c r="D60" t="n">
         <v>-9.630000000000001</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.49</v>
+        <v>16.721</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.314</v>
+        <v>17.456</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.536</v>
+        <v>17.481</v>
       </c>
     </row>
     <row r="65">
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.428</v>
+        <v>5.936000000000001</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.356</v>
+        <v>5.384</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.314</v>
+        <v>17.602</v>
       </c>
     </row>
     <row r="71">
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>17.278</v>
+        <v>17.143</v>
       </c>
     </row>
     <row r="73">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.372</v>
+        <v>-12.752</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.382</v>
+        <v>-12.453</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.116</v>
+        <v>5.6</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.481999999999999</v>
+        <v>5.45</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.33</v>
+        <v>16.249</v>
       </c>
     </row>
     <row r="87">
@@ -1947,13 +1947,13 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.184</v>
+        <v>-10.693</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.54</v>
+        <v>17.187</v>
       </c>
     </row>
     <row r="90">
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.818</v>
+        <v>-13.298</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>4.806</v>
+        <v>5.540999999999999</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.492</v>
+        <v>-10.927</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.52</v>
+        <v>5.472999999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.7</v>
+        <v>16.183</v>
       </c>
     </row>
     <row r="99">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.249999999999999</v>
+        <v>5.051</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.548</v>
+        <v>16.537</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.434</v>
+        <v>16.318</v>
       </c>
     </row>
   </sheetData>
